--- a/Users.xlsx
+++ b/Users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,21 @@
           <t>_id</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>latitude</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>longitude</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -490,10 +505,8 @@
           <t>harsh</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7233811034</t>
-        </is>
+      <c r="F2" t="n">
+        <v>7233811034</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -508,6 +521,651 @@
       <c r="I2" t="inlineStr">
         <is>
           <t>67a1b5c4fb467c7db2740d3d</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>67b43ba477f3d8b8531cdded</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>26.8959072</v>
+      </c>
+      <c r="K3" t="n">
+        <v>80.9352781</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Triveni Nagar, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>67b43be977f3d8b8531cddee</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>26.8959072</v>
+      </c>
+      <c r="K4" t="n">
+        <v>80.9352781</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Triveni Nagar, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>67b43d4836145a8e8fea7e46</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>26.8959072</v>
+      </c>
+      <c r="K5" t="n">
+        <v>80.9352781</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Triveni Nagar, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>67b4400ee3ab80dbe00382f1</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>26.8959072</v>
+      </c>
+      <c r="K6" t="n">
+        <v>80.9352781</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Triveni Nagar, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>67b44054e3ab80dbe00382f2</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>26.8959072</v>
+      </c>
+      <c r="K7" t="n">
+        <v>80.9352781</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Triveni Nagar, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>67b44b3b54ccda20460726c3</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>26.9107606</v>
+      </c>
+      <c r="K8" t="n">
+        <v>80.94657599999999</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>67b4524e06d97512ab818aa2</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>26.9107621</v>
+      </c>
+      <c r="K9" t="n">
+        <v>80.9465658</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>67b457ad194ece4ac077eed8</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>26.9107848</v>
+      </c>
+      <c r="K10" t="n">
+        <v>80.94657669999999</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>67b4596a2a3146572e215ddd</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>26.9107847</v>
+      </c>
+      <c r="K11" t="n">
+        <v>80.9465812</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>67b459ab2a3146572e215ddf</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>26.9107532</v>
+      </c>
+      <c r="K12" t="n">
+        <v>80.94657170000001</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Propques</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>buzz@propques.com</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>67b46655bf3116b55e868288</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>26.9107785</v>
+      </c>
+      <c r="K13" t="n">
+        <v>80.94656310000001</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Propques</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>buzz@propques.com</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>67b466c0bf3116b55e868289</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Unknown Location</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Propques</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>buzz@propques.com</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>67b46ca6a9c382fb5e436b65</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>26.9182684</v>
+      </c>
+      <c r="K15" t="n">
+        <v>80.9539367</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>LU New Campus Road, Aliganj, Lucknow, Uttar Pradesh, 226026, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Propques</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>buzz@propques.com</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>67b46e2c1687ddf99f59108a</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>26.9109194</v>
+      </c>
+      <c r="K16" t="n">
+        <v>80.94662820000001</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Propques</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>buzz@propques.com</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>67b470a1b18bad30c138e75e</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>26.9182684</v>
+      </c>
+      <c r="K17" t="n">
+        <v>80.9539367</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>LU New Campus Road, Aliganj, Lucknow, Uttar Pradesh, 226026, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9935558059</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Propques</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>buzz@propques.com</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>67b472a466c005e0698620b1</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>26.9109037</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>80.9466198</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
         </is>
       </c>
     </row>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1133,39 +1133,119 @@
           <t>Pranjal Shukla</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Propques</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>buzz@propques.com</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>67b472a466c005e0698620b1</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>26.9109037</v>
+      </c>
+      <c r="K18" t="n">
+        <v>80.94661979999999</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>67b573a052357e391316af1e</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>26.9182684</v>
+      </c>
+      <c r="K19" t="n">
+        <v>80.9539367</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>LU New Campus Road, Aliganj, Lucknow, Uttar Pradesh, 226026, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>9935558059</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Propques</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>buzz@propques.com</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>67b472a466c005e0698620b1</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>26.9109037</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>80.9466198</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>67b57e97ffbccc2e6b4c6534</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>26.9182684</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>80.9539367</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>LU New Campus Road, Aliganj, Lucknow, Uttar Pradesh, 226026, India</t>
         </is>
       </c>
     </row>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1213,39 +1213,359 @@
           <t>Pranjal Shukla</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>67b57e97ffbccc2e6b4c6534</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>26.9182684</v>
+      </c>
+      <c r="K20" t="n">
+        <v>80.9539367</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>LU New Campus Road, Aliganj, Lucknow, Uttar Pradesh, 226026, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Mahima</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>8853714897</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Propques</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>67bed8ab261feecf9097e09f</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>26.9107629</v>
+      </c>
+      <c r="K21" t="n">
+        <v>80.94655179999999</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>67bee124483716fceb959fe9</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>26.9107659</v>
+      </c>
+      <c r="K22" t="n">
+        <v>80.9465517</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>67bee39e0a8d0ed3260b3618</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>26.9107697</v>
+      </c>
+      <c r="K23" t="n">
+        <v>80.94655760000001</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>67beea33ed8fb85a23b86b17</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>26.9107728</v>
+      </c>
+      <c r="K24" t="n">
+        <v>80.9465615</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>67beeeb8374c26258ac35163</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>26.9107533</v>
+      </c>
+      <c r="K25" t="n">
+        <v>80.946563</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>67bef3995456e4702415f2f0</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>26.9179264</v>
+      </c>
+      <c r="K26" t="n">
+        <v>80.9539367</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>LU New Campus Road, Aliganj, Lucknow, Uttar Pradesh, 226026, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>67bef48bbd884a356ac31ccc</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>26.9107547</v>
+      </c>
+      <c r="K27" t="n">
+        <v>80.946569</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>9935558059</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>propques</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>pranjalshukla800@gmail.com</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>67b57e97ffbccc2e6b4c6534</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>26.9182684</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>80.9539367</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>LU New Campus Road, Aliganj, Lucknow, Uttar Pradesh, 226026, India</t>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>67bf00d01950ca48d9b97686</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>26.9107501</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>80.9465604</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
         </is>
       </c>
     </row>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1533,39 +1533,79 @@
           <t>Pranjal Shukla</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>67bf00d01950ca48d9b97686</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>26.9107501</v>
+      </c>
+      <c r="K28" t="n">
+        <v>80.9465604</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>9935558059</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>propques</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>pranjalshukla800@gmail.com</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>67bf00d01950ca48d9b97686</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>26.9107501</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>80.9465604</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>67c15dea7a5466fe052ba655</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>26.9176756</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>80.9539367</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>LU New Campus Road, Aliganj, Lucknow, Uttar Pradesh, 226026, India</t>
         </is>
       </c>
     </row>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,39 +1573,359 @@
           <t>Pranjal Shukla</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>67c15dea7a5466fe052ba655</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>26.9176756</v>
+      </c>
+      <c r="K29" t="n">
+        <v>80.9539367</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>LU New Campus Road, Aliganj, Lucknow, Uttar Pradesh, 226026, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>67c54c353037524255da70d2</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>26.91829</v>
+      </c>
+      <c r="K30" t="n">
+        <v>80.95462759999999</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>LU New Campus Road, Aliganj, Lucknow, Uttar Pradesh, 226026, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>9044895895</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>67c550f1c63f89bf420183ef</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>26.9107625</v>
+      </c>
+      <c r="K31" t="n">
+        <v>80.9465781</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>9044895895</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>67c55a96c63f89bf420183f1</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>26.91829</v>
+      </c>
+      <c r="K32" t="n">
+        <v>80.95462759999999</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>LU New Campus Road, Aliganj, Lucknow, Uttar Pradesh, 226026, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>67c99e943a1a839e08969c0d</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>26.897565</v>
+      </c>
+      <c r="K33" t="n">
+        <v>80.93942490000001</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>67c9a1fe8bd33202829255bb</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>26.9107397</v>
+      </c>
+      <c r="K34" t="n">
+        <v>80.9465747</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>67c9a2d421c6087358125ffb</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>26.897565</v>
+      </c>
+      <c r="K35" t="n">
+        <v>80.93942490000001</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>67cc1c74a6d4ca7b200cfbf6</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>25.2444672</v>
+      </c>
+      <c r="K36" t="n">
+        <v>78.4367616</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Jhansi, Uttar Pradesh, 284401, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>9935558059</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>propques</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>pranjalshukla800@gmail.com</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>67c15dea7a5466fe052ba655</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>26.9176756</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>80.9539367</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>LU New Campus Road, Aliganj, Lucknow, Uttar Pradesh, 226026, India</t>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>67cc2c41a1d427a4186a18a2</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>25.2444672</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>78.4367616</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Jhansi, Uttar Pradesh, 284401, India</t>
         </is>
       </c>
     </row>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1893,39 +1893,159 @@
           <t>Pranjal Shukla</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>67cc2c41a1d427a4186a18a2</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>25.2444672</v>
+      </c>
+      <c r="K37" t="n">
+        <v>78.4367616</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Jhansi, Uttar Pradesh, 284401, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>67d02a0442471343397b6725</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>26.8943068</v>
+      </c>
+      <c r="K38" t="n">
+        <v>80.9511727</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Mahanagar Colony, Mehandi Tola, Lucknow, Uttar Pradesh, 226006, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Harsh Rao</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>7233811034</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Propques</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>67d02b9442471343397b672b</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>26.910726</v>
+      </c>
+      <c r="K39" t="n">
+        <v>80.9465687</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
         <is>
           <t>9935558059</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>propques</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>pranjalshukla800@gmail.com</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>67cc2c41a1d427a4186a18a2</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>25.2444672</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>78.4367616</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Jhansi, Uttar Pradesh, 284401, India</t>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>67d17ca024d05df0a732fedd</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>26.9195273</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>80.9511728</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Lucknow, Uttar Pradesh, 226026, India</t>
         </is>
       </c>
     </row>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2013,10 +2013,8 @@
           <t>Pranjal Shukla</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>9935558059</t>
-        </is>
+      <c r="F40" t="n">
+        <v>9935558059</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2033,19 +2031,181 @@
           <t>67d17ca024d05df0a732fedd</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>26.9195273</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>80.9511728</t>
-        </is>
+      <c r="J40" t="n">
+        <v>26.9195273</v>
+      </c>
+      <c r="K40" t="n">
+        <v>80.95117279999999</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>Lucknow, Uttar Pradesh, 226026, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>67d3b326e9ed344186573c84</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>26.9308602</v>
+      </c>
+      <c r="K41" t="n">
+        <v>80.9462501</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Lucknow, Uttar Pradesh, 226026, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>67d9365b1505113275121fcc</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>26.8965404</v>
+      </c>
+      <c r="K42" t="n">
+        <v>80.9518638</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Mahanagar Colony, Mehandi Tola, Lucknow, Uttar Pradesh, 226006, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>67d93a7a233a4cdae1015763</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>26.8965404</v>
+      </c>
+      <c r="K43" t="n">
+        <v>80.9518638</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Mahanagar Colony, Mehandi Tola, Lucknow, Uttar Pradesh, 226006, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9044895895</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>67d9601bcabe37be74cd32ba</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>26.9107866</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>80.9465661</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
         </is>
       </c>
     </row>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2173,10 +2173,8 @@
           <t>Pranjal Shukla</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>9044895895</t>
-        </is>
+      <c r="F44" t="n">
+        <v>9044895895</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2193,19 +2191,461 @@
           <t>67d9601bcabe37be74cd32ba</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>26.9107866</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>80.9465661</t>
-        </is>
+      <c r="J44" t="n">
+        <v>26.9107866</v>
+      </c>
+      <c r="K44" t="n">
+        <v>80.9465661</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>67dbc1ef17d54f4bd342aa33</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>26.91829</v>
+      </c>
+      <c r="K45" t="n">
+        <v>80.95462759999999</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>LU New Campus Road, Aliganj, Lucknow, Uttar Pradesh, 226026, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>67dbc22a17d54f4bd342aa34</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>26.91829</v>
+      </c>
+      <c r="K46" t="n">
+        <v>80.95462759999999</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>LU New Campus Road, Aliganj, Lucknow, Uttar Pradesh, 226026, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>67dbcbaa17d54f4bd342aa35</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>26.9107373</v>
+      </c>
+      <c r="K47" t="n">
+        <v>80.9465628</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>67dbce9e17d54f4bd342aa36</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>26.91829</v>
+      </c>
+      <c r="K48" t="n">
+        <v>80.95462759999999</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>LU New Campus Road, Aliganj, Lucknow, Uttar Pradesh, 226026, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>67dbcf5a17d54f4bd342aa37</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>26.9107772</v>
+      </c>
+      <c r="K49" t="n">
+        <v>80.94656449999999</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>67dbd0dc17d54f4bd342aa3c</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>26.91829</v>
+      </c>
+      <c r="K50" t="n">
+        <v>80.95462759999999</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>LU New Campus Road, Aliganj, Lucknow, Uttar Pradesh, 226026, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>67dbd13917d54f4bd342aa3d</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>26.91829</v>
+      </c>
+      <c r="K51" t="n">
+        <v>80.95462759999999</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>LU New Campus Road, Aliganj, Lucknow, Uttar Pradesh, 226026, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>67dbd1c917d54f4bd342aa3e</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>26.9107889</v>
+      </c>
+      <c r="K52" t="n">
+        <v>80.9465548</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Aliganj, Lucknow, Uttar Pradesh, 226024, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>67dbd54917d54f4bd342aa3f</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>26.91829</v>
+      </c>
+      <c r="K53" t="n">
+        <v>80.95462759999999</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>LU New Campus Road, Aliganj, Lucknow, Uttar Pradesh, 226026, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>67dbe50be305365b8486804a</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>26.9182684</v>
+      </c>
+      <c r="K54" t="n">
+        <v>80.9539367</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>LU New Campus Road, Aliganj, Lucknow, Uttar Pradesh, 226026, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>9935558059</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>67dbe57ae305365b8486804b</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>26.9182684</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>80.9539367</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>LU New Campus Road, Aliganj, Lucknow, Uttar Pradesh, 226026, India</t>
         </is>
       </c>
     </row>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2613,39 +2613,79 @@
           <t>Pranjal Shukla</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>67dbe57ae305365b8486804b</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>26.9182684</v>
+      </c>
+      <c r="K55" t="n">
+        <v>80.9539367</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>LU New Campus Road, Aliganj, Lucknow, Uttar Pradesh, 226026, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
         <is>
           <t>9935558059</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>propques</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>pranjalshukla800@gmail.com</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>67dbe57ae305365b8486804b</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>26.9182684</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>80.9539367</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>LU New Campus Road, Aliganj, Lucknow, Uttar Pradesh, 226026, India</t>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>67de6f035f2b9aed0362ba7e</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>26.8664832</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>80.9304064</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Qaisarbagh, Lucknow, Uttar Pradesh, 226007, India</t>
         </is>
       </c>
     </row>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2653,39 +2653,79 @@
           <t>Pranjal Shukla</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="n">
+        <v>9935558059</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>67de6f035f2b9aed0362ba7e</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>26.8664832</v>
+      </c>
+      <c r="K56" t="n">
+        <v>80.9304064</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Qaisarbagh, Lucknow, Uttar Pradesh, 226007, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Pranjal Shukla</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
         <is>
           <t>9935558059</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>propques</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>pranjalshukla800@gmail.com</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>67de6f035f2b9aed0362ba7e</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>26.8664832</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>80.9304064</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Qaisarbagh, Lucknow, Uttar Pradesh, 226007, India</t>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>propques</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>pranjalshukla800@gmail.com</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>68021425a67f507f505ea74c</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>26.9182684</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>80.9539367</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>LU New Campus Road, Aliganj, Lucknow, Uttar Pradesh, 226026, India</t>
         </is>
       </c>
     </row>
